--- a/data/trans_orig/P20D2_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6383</v>
+        <v>6308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14041</v>
+        <v>14401</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5298888808957931</v>
+        <v>0.5298888808957932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3279777145297965</v>
+        <v>0.3241190362204131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7215051688579645</v>
+        <v>0.7399857706076016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>8854</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5526</v>
+        <v>5936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11376</v>
+        <v>11594</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5843910570166068</v>
+        <v>0.5843910570166067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3647416215908749</v>
+        <v>0.3918208356683141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7509018971601822</v>
+        <v>0.7652606800805989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -783,19 +783,19 @@
         <v>19166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13955</v>
+        <v>14445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23816</v>
+        <v>24090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5537457633633315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4031832613516688</v>
+        <v>0.4173494757491468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6880960126736523</v>
+        <v>0.6960242856952628</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5420</v>
+        <v>5060</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13078</v>
+        <v>13153</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4701111191042068</v>
+        <v>0.4701111191042069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2784948311420349</v>
+        <v>0.2600142293923987</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6720222854702039</v>
+        <v>0.675880963779587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>6296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3774</v>
+        <v>3556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9624</v>
+        <v>9214</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4156089429833934</v>
+        <v>0.4156089429833935</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2490981028398179</v>
+        <v>0.2347393199194012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6352583784091252</v>
+        <v>0.6081791643316855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>15445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10795</v>
+        <v>10521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20656</v>
+        <v>20166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4462542366366686</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3119039873263474</v>
+        <v>0.3039757143047372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.596816738648331</v>
+        <v>0.582650524250853</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>28550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22870</v>
+        <v>22362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33024</v>
+        <v>32947</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7602677791803782</v>
+        <v>0.7602677791803784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6089978437034506</v>
+        <v>0.5954853147646417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8794038646544237</v>
+        <v>0.8773592237371206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>12350</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7716</v>
+        <v>7322</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19794</v>
+        <v>19461</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3830022286749666</v>
+        <v>0.3830022286749667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2393034867080502</v>
+        <v>0.2270744849597401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6138543169734348</v>
+        <v>0.6035358229453248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -1000,19 +1000,19 @@
         <v>40900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32692</v>
+        <v>33119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48727</v>
+        <v>49204</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5859812790351318</v>
+        <v>0.5859812790351319</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4683756206987497</v>
+        <v>0.4744992451231411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6981116886600681</v>
+        <v>0.7049474504055326</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>9003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4529</v>
+        <v>4606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14683</v>
+        <v>15191</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2397322208196217</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1205961353455765</v>
+        <v>0.1226407762628797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3910021562965494</v>
+        <v>0.4045146852353584</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1050,19 +1050,19 @@
         <v>19895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12451</v>
+        <v>12784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24529</v>
+        <v>24923</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6169977713250332</v>
+        <v>0.6169977713250333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3861456830265645</v>
+        <v>0.3964641770546753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7606965132919499</v>
+        <v>0.7729255150402599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -1071,19 +1071,19 @@
         <v>28898</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21071</v>
+        <v>20594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37106</v>
+        <v>36679</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4140187209648682</v>
+        <v>0.4140187209648684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3018883113399317</v>
+        <v>0.2950525495944674</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5316243793012501</v>
+        <v>0.5255007548768584</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>10113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6269</v>
+        <v>5489</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>11188</v>
@@ -1184,7 +1184,7 @@
         <v>0.9039352259545469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5603216536185676</v>
+        <v>0.490606701588932</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>1567</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3781</v>
+        <v>4338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1678043211720392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03803614650866106</v>
+        <v>0.03997658856040653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4049458176808493</v>
+        <v>0.4646762118972502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1217,19 +1217,19 @@
         <v>11679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7483</v>
+        <v>7404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15540</v>
+        <v>15826</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5690872267162116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3646143118285498</v>
+        <v>0.3607588681018468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7571755948330876</v>
+        <v>0.7711127489215296</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4919</v>
+        <v>5699</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09606477404545309</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4396783463814334</v>
+        <v>0.5093932984110655</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1267,19 +1267,19 @@
         <v>7769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5555</v>
+        <v>4998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8981</v>
+        <v>8963</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8321956788279609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5950541823191501</v>
+        <v>0.5353237881027516</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9619638534913391</v>
+        <v>0.9600234114395934</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1288,19 +1288,19 @@
         <v>8844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4983</v>
+        <v>4697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13040</v>
+        <v>13119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4309127732837884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2428244051669121</v>
+        <v>0.2288872510784704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6353856881714501</v>
+        <v>0.639241131898153</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>48976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1413,19 +1413,19 @@
         <v>22770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16252</v>
+        <v>16489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30701</v>
+        <v>31001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4013704700236115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2864781625046348</v>
+        <v>0.2906477660485164</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5411638113045697</v>
+        <v>0.5464556997752053</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -1434,19 +1434,19 @@
         <v>71746</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61023</v>
+        <v>61813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81983</v>
+        <v>82252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5742755965303744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4884492565397571</v>
+        <v>0.4947722880511274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6562138999033524</v>
+        <v>0.6583722632482973</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>19226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13114</v>
+        <v>12630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27344</v>
+        <v>26563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.281901797553179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.192286803032738</v>
+        <v>0.1851836121381725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4009335505841712</v>
+        <v>0.3894748540186707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1484,19 +1484,19 @@
         <v>33961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26030</v>
+        <v>25730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40479</v>
+        <v>40242</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5986295299763885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4588361886954306</v>
+        <v>0.4535443002247947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7135218374953654</v>
+        <v>0.7093522339514834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -1505,19 +1505,19 @@
         <v>53187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42950</v>
+        <v>42681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63910</v>
+        <v>63120</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4257244034696256</v>
+        <v>0.4257244034696258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3437861000966476</v>
+        <v>0.3416277367517026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5115507434602429</v>
+        <v>0.5052277119488724</v>
       </c>
     </row>
     <row r="15">
